--- a/Civilworks cost/RADP Preparations/Sunamgonj/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Sunamgonj/Projecttion_output.xlsx
@@ -937,14 +937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -979,7 +974,7 @@
       <c r="E2">
         <v>291.81</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -999,7 +994,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1019,7 +1014,7 @@
       <c r="E4">
         <v>6503.97</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1039,7 +1034,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1059,7 +1054,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1079,7 +1074,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1099,7 +1094,7 @@
       <c r="E8">
         <v>2546.54</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1119,7 +1114,7 @@
       <c r="E9">
         <v>51.09</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1139,7 +1134,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1159,7 +1154,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1179,7 +1174,7 @@
       <c r="E12">
         <v>5833.04</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1199,7 +1194,7 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1219,7 +1214,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1239,7 +1234,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1259,7 +1254,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7655,16 +7650,15 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7688,7 +7682,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2">
@@ -7708,7 +7702,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2">
@@ -7728,47 +7722,47 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>1459.67158152</v>
+        <v>1459.67</v>
       </c>
       <c r="D4" s="2">
-        <v>3107.9178853200001</v>
+        <v>3107.92</v>
       </c>
       <c r="E4" s="2">
         <v>1769.37</v>
       </c>
       <c r="F4" s="2">
-        <v>1338.54788532</v>
+        <v>1338.55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2">
-        <v>2580.5766460357349</v>
+        <v>2580.58</v>
       </c>
       <c r="D5" s="2">
-        <v>2862.2676041957352</v>
+        <v>2862.27</v>
       </c>
       <c r="E5" s="2">
         <v>2317</v>
       </c>
       <c r="F5" s="2">
-        <v>545.2676041957352</v>
+        <v>545.27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="2">
@@ -7788,7 +7782,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="2">
@@ -7808,7 +7802,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2">
@@ -7828,11 +7822,11 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2">
-        <v>2036.085</v>
+        <v>2036.08</v>
       </c>
       <c r="D9" s="2">
         <v>2431.65</v>
@@ -7848,7 +7842,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2">
@@ -7868,7 +7862,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="2">
@@ -7888,7 +7882,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2">
@@ -7908,7 +7902,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="2">
@@ -7925,7 +7919,22 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
+      <c r="C14" s="2">
+        <f>SUM(C2:C13)</f>
+        <v>6076.33</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:F14" si="0">SUM(D2:D13)</f>
+        <v>8543.8799999999992</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>6203.48</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>2340.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
